--- a/static/upload/export.xlsx
+++ b/static/upload/export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>订单编号</t>
   </si>
@@ -34,6 +34,9 @@
     <t>订单价格</t>
   </si>
   <si>
+    <t>用户实际支付价格</t>
+  </si>
+  <si>
     <t>订单状态</t>
   </si>
   <si>
@@ -46,25 +49,28 @@
     <t/>
   </si>
   <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>上海-南京路步行街</t>
-  </si>
-  <si>
-    <t>上海-外滩</t>
-  </si>
-  <si>
-    <t>已支付</t>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>青岛-德国风情街</t>
+  </si>
+  <si>
+    <t>青岛-奥帆中心商业街</t>
+  </si>
+  <si>
+    <t>超时</t>
   </si>
   <si>
     <t>Claudius</t>
   </si>
   <si>
-    <t>武汉-光谷步行街</t>
-  </si>
-  <si>
-    <t>武汉-汉口讲坛步行街</t>
+    <t>AVGVSTVS</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>广州-北京路步行街</t>
   </si>
 </sst>
 </file>
@@ -408,63 +414,72 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
-        <v>45274.73260830455</v>
+        <v>45274.731944444444</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="H2">
+        <v>200</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
-        <v>45274.73260830455</v>
+        <v>45274.731944444444</v>
       </c>
       <c r="G3">
-        <v>350</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>250</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/static/upload/export.xlsx
+++ b/static/upload/export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>订单编号</t>
   </si>
@@ -49,28 +49,22 @@
     <t/>
   </si>
   <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>青岛-德国风情街</t>
-  </si>
-  <si>
-    <t>青岛-奥帆中心商业街</t>
-  </si>
-  <si>
-    <t>超时</t>
-  </si>
-  <si>
-    <t>Claudius</t>
-  </si>
-  <si>
-    <t>AVGVSTVS</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>广州-北京路步行街</t>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>武汉-汉正街</t>
+  </si>
+  <si>
+    <t>武汉福利院</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>chd</t>
+  </si>
+  <si>
+    <t>ph</t>
   </si>
 </sst>
 </file>
@@ -432,13 +426,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="1">
-        <v>45274.731944444444</v>
+        <v>45297.88638888889</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -447,38 +441,6 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45274.731944444444</v>
-      </c>
-      <c r="G3">
-        <v>250</v>
-      </c>
-      <c r="H3">
-        <v>250</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/static/upload/export.xlsx
+++ b/static/upload/export.xlsx
@@ -444,6 +444,38 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45301.551724537036</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>